--- a/_resource/excel/K-框架-基础属性-(框架维护,请勿修改).xlsx
+++ b/_resource/excel/K-框架-基础属性-(框架维护,请勿修改).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Project\Fighter\trunk\Resource\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Frame\trunk\_resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
     <author>PCC</author>
   </authors>
   <commentList>
-    <comment ref="S4" authorId="0" shapeId="0">
+    <comment ref="T4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="141">
   <si>
     <t>LuaFile(string)</t>
   </si>
@@ -585,11 +585,19 @@
     <t>RunParam(string)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>是否创建</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create(int)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1202,10 +1210,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ38"/>
+  <dimension ref="A1:AK38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N4"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1222,28 +1230,28 @@
     <col min="12" max="12" width="26" style="9" customWidth="1"/>
     <col min="13" max="13" width="23.75" style="9" customWidth="1"/>
     <col min="14" max="15" width="18.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.125" style="9" customWidth="1"/>
-    <col min="17" max="18" width="12.875" style="9" customWidth="1"/>
-    <col min="19" max="19" width="17.125" style="9" customWidth="1"/>
-    <col min="20" max="20" width="11" style="9" customWidth="1"/>
-    <col min="21" max="21" width="12.875" style="9" customWidth="1"/>
-    <col min="22" max="22" width="15" style="9" customWidth="1"/>
-    <col min="23" max="23" width="11" style="9" customWidth="1"/>
-    <col min="24" max="24" width="13.75" style="9" customWidth="1"/>
-    <col min="25" max="26" width="17.125" style="9" customWidth="1"/>
-    <col min="27" max="27" width="12.625" style="9" customWidth="1"/>
-    <col min="28" max="28" width="14.875" style="9" customWidth="1"/>
-    <col min="29" max="30" width="11.5" style="9" customWidth="1"/>
-    <col min="31" max="31" width="10.875" style="9" customWidth="1"/>
-    <col min="32" max="32" width="9.375" style="9" customWidth="1"/>
-    <col min="33" max="33" width="17.125" style="9" customWidth="1"/>
-    <col min="34" max="34" width="21.5" style="9" customWidth="1"/>
-    <col min="35" max="35" width="24.875" style="9" customWidth="1"/>
-    <col min="36" max="36" width="28.75" style="9" customWidth="1"/>
-    <col min="37" max="16384" width="9" style="9"/>
+    <col min="16" max="17" width="17.125" style="9" customWidth="1"/>
+    <col min="18" max="19" width="12.875" style="9" customWidth="1"/>
+    <col min="20" max="20" width="17.125" style="9" customWidth="1"/>
+    <col min="21" max="21" width="11" style="9" customWidth="1"/>
+    <col min="22" max="22" width="12.875" style="9" customWidth="1"/>
+    <col min="23" max="23" width="15" style="9" customWidth="1"/>
+    <col min="24" max="24" width="11" style="9" customWidth="1"/>
+    <col min="25" max="25" width="13.75" style="9" customWidth="1"/>
+    <col min="26" max="27" width="17.125" style="9" customWidth="1"/>
+    <col min="28" max="28" width="12.625" style="9" customWidth="1"/>
+    <col min="29" max="29" width="14.875" style="9" customWidth="1"/>
+    <col min="30" max="31" width="11.5" style="9" customWidth="1"/>
+    <col min="32" max="32" width="10.875" style="9" customWidth="1"/>
+    <col min="33" max="33" width="9.375" style="9" customWidth="1"/>
+    <col min="34" max="34" width="17.125" style="9" customWidth="1"/>
+    <col min="35" max="35" width="21.5" style="9" customWidth="1"/>
+    <col min="36" max="36" width="24.875" style="9" customWidth="1"/>
+    <col min="37" max="37" width="28.75" style="9" customWidth="1"/>
+    <col min="38" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
         <v>135</v>
@@ -1281,8 +1289,9 @@
       <c r="AG1" s="11"/>
       <c r="AH1" s="11"/>
       <c r="AI1" s="11"/>
+      <c r="AJ1" s="11"/>
     </row>
-    <row r="2" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10"/>
       <c r="B2" s="10" t="s">
         <v>1</v>
@@ -1327,70 +1336,73 @@
         <v>11</v>
       </c>
       <c r="P2" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="S2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="V2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="W2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="X2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="Y2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="Z2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="AA2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="AB2" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AC2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AD2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="AE2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AE2" s="10" t="s">
+      <c r="AF2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AF2" s="10" t="s">
+      <c r="AG2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="AG2" s="10" t="s">
+      <c r="AH2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AH2" s="10" t="s">
+      <c r="AI2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AI2" s="10" t="s">
+      <c r="AJ2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12">
         <v>0</v>
       </c>
@@ -1443,13 +1455,13 @@
         <v>3</v>
       </c>
       <c r="R3" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S3" s="12">
         <v>1</v>
       </c>
       <c r="T3" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U3" s="12">
         <v>3</v>
@@ -1461,7 +1473,7 @@
         <v>3</v>
       </c>
       <c r="X3" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y3" s="12">
         <v>1</v>
@@ -1470,7 +1482,7 @@
         <v>1</v>
       </c>
       <c r="AA3" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB3" s="12">
         <v>3</v>
@@ -1496,11 +1508,14 @@
       <c r="AI3" s="12">
         <v>3</v>
       </c>
-      <c r="AJ3" s="3">
+      <c r="AJ3" s="12">
         <v>3</v>
       </c>
+      <c r="AK3" s="3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
         <v>28</v>
       </c>
@@ -1547,70 +1562,73 @@
         <v>138</v>
       </c>
       <c r="P4" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="13" t="s">
+      <c r="R4" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="13" t="s">
+      <c r="S4" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="13" t="s">
+      <c r="T4" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="13" t="s">
+      <c r="U4" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U4" s="13" t="s">
+      <c r="V4" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="V4" s="13" t="s">
+      <c r="W4" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="W4" s="13" t="s">
+      <c r="X4" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="X4" s="13" t="s">
+      <c r="Y4" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="Y4" s="13" t="s">
+      <c r="Z4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="Z4" s="13" t="s">
+      <c r="AA4" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AA4" s="13" t="s">
+      <c r="AB4" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="AB4" s="13" t="s">
+      <c r="AC4" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="AC4" s="13" t="s">
+      <c r="AD4" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="AD4" s="13" t="s">
+      <c r="AE4" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="AE4" s="13" t="s">
+      <c r="AF4" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="AF4" s="13" t="s">
-        <v>0</v>
-      </c>
       <c r="AG4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="AH4" s="13" t="s">
+      <c r="AI4" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AI4" s="13" t="s">
+      <c r="AJ4" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="AJ4" s="4" t="s">
+      <c r="AK4" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
         <v>61</v>
       </c>
@@ -1642,14 +1660,14 @@
         <v>1</v>
       </c>
       <c r="Q5" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="14">
+        <v>0</v>
+      </c>
+      <c r="S5" s="14">
         <v>60000</v>
       </c>
-      <c r="S5" s="14">
-        <v>1</v>
-      </c>
       <c r="T5" s="14">
         <v>1</v>
       </c>
@@ -1657,10 +1675,10 @@
         <v>1</v>
       </c>
       <c r="V5" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5" s="14">
         <v>1</v>
@@ -1686,12 +1704,15 @@
       <c r="AE5" s="14">
         <v>1</v>
       </c>
-      <c r="AF5" s="14"/>
+      <c r="AF5" s="14">
+        <v>1</v>
+      </c>
       <c r="AG5" s="14"/>
       <c r="AH5" s="14"/>
       <c r="AI5" s="14"/>
+      <c r="AJ5" s="14"/>
     </row>
-    <row r="6" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
         <v>65</v>
       </c>
@@ -1716,7 +1737,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="15"/>
       <c r="P6" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="15">
         <v>0</v>
@@ -1728,19 +1749,19 @@
         <v>0</v>
       </c>
       <c r="T6" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6" s="15">
         <v>1</v>
       </c>
       <c r="V6" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6" s="15">
         <v>0</v>
@@ -1763,12 +1784,15 @@
       <c r="AE6" s="15">
         <v>0</v>
       </c>
-      <c r="AF6" s="15"/>
+      <c r="AF6" s="15">
+        <v>0</v>
+      </c>
       <c r="AG6" s="15"/>
       <c r="AH6" s="15"/>
       <c r="AI6" s="15"/>
+      <c r="AJ6" s="15"/>
     </row>
-    <row r="7" spans="1:36" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:37" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
         <v>67</v>
       </c>
@@ -1797,7 +1821,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="15"/>
       <c r="P7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="15">
         <v>0</v>
@@ -1809,25 +1833,25 @@
         <v>0</v>
       </c>
       <c r="T7" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7" s="15">
         <v>1</v>
       </c>
       <c r="V7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7" s="15">
         <v>0</v>
       </c>
       <c r="Z7" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="15">
         <v>1</v>
@@ -1844,12 +1868,15 @@
       <c r="AE7" s="15">
         <v>1</v>
       </c>
-      <c r="AF7" s="15"/>
+      <c r="AF7" s="15">
+        <v>1</v>
+      </c>
       <c r="AG7" s="15"/>
       <c r="AH7" s="15"/>
       <c r="AI7" s="15"/>
+      <c r="AJ7" s="15"/>
     </row>
-    <row r="8" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
         <v>68</v>
       </c>
@@ -1874,7 +1901,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
       <c r="P8" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="15">
         <v>0</v>
@@ -1886,10 +1913,10 @@
         <v>0</v>
       </c>
       <c r="T8" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" s="15">
         <v>0</v>
@@ -1921,12 +1948,15 @@
       <c r="AE8" s="15">
         <v>0</v>
       </c>
-      <c r="AF8" s="15"/>
+      <c r="AF8" s="15">
+        <v>0</v>
+      </c>
       <c r="AG8" s="15"/>
       <c r="AH8" s="15"/>
       <c r="AI8" s="15"/>
+      <c r="AJ8" s="15"/>
     </row>
-    <row r="9" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
         <v>71</v>
       </c>
@@ -1951,7 +1981,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="15"/>
       <c r="P9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="15">
         <v>0</v>
@@ -1963,10 +1993,10 @@
         <v>0</v>
       </c>
       <c r="T9" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" s="15">
         <v>0</v>
@@ -1998,12 +2028,15 @@
       <c r="AE9" s="15">
         <v>0</v>
       </c>
-      <c r="AF9" s="15"/>
+      <c r="AF9" s="15">
+        <v>0</v>
+      </c>
       <c r="AG9" s="15"/>
       <c r="AH9" s="15"/>
       <c r="AI9" s="15"/>
+      <c r="AJ9" s="15"/>
     </row>
-    <row r="10" spans="1:36" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="15" t="s">
         <v>73</v>
       </c>
@@ -2028,7 +2061,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
       <c r="P10" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="15">
         <v>0</v>
@@ -2040,10 +2073,10 @@
         <v>0</v>
       </c>
       <c r="T10" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" s="15">
         <v>0</v>
@@ -2075,12 +2108,15 @@
       <c r="AE10" s="15">
         <v>0</v>
       </c>
-      <c r="AF10" s="15"/>
+      <c r="AF10" s="15">
+        <v>0</v>
+      </c>
       <c r="AG10" s="15"/>
       <c r="AH10" s="15"/>
       <c r="AI10" s="15"/>
+      <c r="AJ10" s="15"/>
     </row>
-    <row r="11" spans="1:36" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="15" t="s">
         <v>76</v>
       </c>
@@ -2105,7 +2141,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="15"/>
       <c r="P11" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="15">
         <v>0</v>
@@ -2152,12 +2188,15 @@
       <c r="AE11" s="15">
         <v>0</v>
       </c>
-      <c r="AF11" s="15"/>
+      <c r="AF11" s="15">
+        <v>0</v>
+      </c>
       <c r="AG11" s="15"/>
       <c r="AH11" s="15"/>
       <c r="AI11" s="15"/>
+      <c r="AJ11" s="15"/>
     </row>
-    <row r="12" spans="1:36" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="15" t="s">
         <v>78</v>
       </c>
@@ -2182,7 +2221,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
       <c r="P12" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="15">
         <v>0</v>
@@ -2194,10 +2233,10 @@
         <v>0</v>
       </c>
       <c r="T12" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" s="15">
         <v>0</v>
@@ -2229,12 +2268,15 @@
       <c r="AE12" s="15">
         <v>0</v>
       </c>
-      <c r="AF12" s="15"/>
+      <c r="AF12" s="15">
+        <v>0</v>
+      </c>
       <c r="AG12" s="15"/>
       <c r="AH12" s="15"/>
       <c r="AI12" s="15"/>
+      <c r="AJ12" s="15"/>
     </row>
-    <row r="13" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="15" t="s">
         <v>82</v>
       </c>
@@ -2259,7 +2301,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="15"/>
       <c r="P13" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="15">
         <v>0</v>
@@ -2271,10 +2313,10 @@
         <v>0</v>
       </c>
       <c r="T13" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" s="15">
         <v>0</v>
@@ -2306,12 +2348,15 @@
       <c r="AE13" s="15">
         <v>0</v>
       </c>
-      <c r="AF13" s="15"/>
+      <c r="AF13" s="15">
+        <v>0</v>
+      </c>
       <c r="AG13" s="15"/>
       <c r="AH13" s="15"/>
       <c r="AI13" s="15"/>
+      <c r="AJ13" s="15"/>
     </row>
-    <row r="14" spans="1:36" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:37" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
         <v>115</v>
       </c>
@@ -2336,7 +2381,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="15"/>
       <c r="P14" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="15">
         <v>0</v>
@@ -2348,10 +2393,10 @@
         <v>0</v>
       </c>
       <c r="T14" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14" s="15">
         <v>0</v>
@@ -2383,12 +2428,15 @@
       <c r="AE14" s="15">
         <v>0</v>
       </c>
-      <c r="AF14" s="15"/>
+      <c r="AF14" s="15">
+        <v>0</v>
+      </c>
       <c r="AG14" s="15"/>
       <c r="AH14" s="15"/>
       <c r="AI14" s="15"/>
+      <c r="AJ14" s="15"/>
     </row>
-    <row r="15" spans="1:36" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:37" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="15" t="s">
         <v>80</v>
       </c>
@@ -2413,7 +2461,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="15"/>
       <c r="P15" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="15">
         <v>0</v>
@@ -2425,10 +2473,10 @@
         <v>0</v>
       </c>
       <c r="T15" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15" s="15">
         <v>0</v>
@@ -2460,12 +2508,15 @@
       <c r="AE15" s="15">
         <v>0</v>
       </c>
-      <c r="AF15" s="15"/>
+      <c r="AF15" s="15">
+        <v>0</v>
+      </c>
       <c r="AG15" s="15"/>
       <c r="AH15" s="15"/>
       <c r="AI15" s="15"/>
+      <c r="AJ15" s="15"/>
     </row>
-    <row r="16" spans="1:36" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:37" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="15" t="s">
         <v>84</v>
       </c>
@@ -2498,7 +2549,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="15"/>
       <c r="P16" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="15">
         <v>0</v>
@@ -2510,10 +2561,10 @@
         <v>0</v>
       </c>
       <c r="T16" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16" s="15">
         <v>0</v>
@@ -2545,12 +2596,15 @@
       <c r="AE16" s="15">
         <v>0</v>
       </c>
-      <c r="AF16" s="15"/>
+      <c r="AF16" s="15">
+        <v>0</v>
+      </c>
       <c r="AG16" s="15"/>
       <c r="AH16" s="15"/>
       <c r="AI16" s="15"/>
+      <c r="AJ16" s="15"/>
     </row>
-    <row r="17" spans="1:35" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:36" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="15" t="s">
         <v>116</v>
       </c>
@@ -2583,7 +2637,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="15"/>
       <c r="P17" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="15">
         <v>0</v>
@@ -2595,10 +2649,10 @@
         <v>0</v>
       </c>
       <c r="T17" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" s="15">
         <v>0</v>
@@ -2630,12 +2684,15 @@
       <c r="AE17" s="15">
         <v>0</v>
       </c>
-      <c r="AF17" s="15"/>
+      <c r="AF17" s="15">
+        <v>0</v>
+      </c>
       <c r="AG17" s="15"/>
       <c r="AH17" s="15"/>
       <c r="AI17" s="15"/>
+      <c r="AJ17" s="15"/>
     </row>
-    <row r="18" spans="1:35" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:36" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="15" t="s">
         <v>92</v>
       </c>
@@ -2665,7 +2722,7 @@
         <v>1</v>
       </c>
       <c r="Q18" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="15">
         <v>0</v>
@@ -2674,13 +2731,13 @@
         <v>0</v>
       </c>
       <c r="T18" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" s="15">
         <v>1</v>
       </c>
       <c r="V18" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18" s="15">
         <v>0</v>
@@ -2692,10 +2749,10 @@
         <v>0</v>
       </c>
       <c r="Z18" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB18" s="15">
         <v>0</v>
@@ -2709,12 +2766,15 @@
       <c r="AE18" s="15">
         <v>0</v>
       </c>
-      <c r="AF18" s="15"/>
+      <c r="AF18" s="15">
+        <v>0</v>
+      </c>
       <c r="AG18" s="15"/>
       <c r="AH18" s="15"/>
       <c r="AI18" s="15"/>
+      <c r="AJ18" s="15"/>
     </row>
-    <row r="19" spans="1:35" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:36" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="15" t="s">
         <v>89</v>
       </c>
@@ -2744,7 +2804,7 @@
         <v>1</v>
       </c>
       <c r="Q19" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="15">
         <v>0</v>
@@ -2753,13 +2813,13 @@
         <v>0</v>
       </c>
       <c r="T19" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" s="15">
         <v>1</v>
       </c>
       <c r="V19" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19" s="15">
         <v>0</v>
@@ -2771,10 +2831,10 @@
         <v>0</v>
       </c>
       <c r="Z19" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA19" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB19" s="15">
         <v>0</v>
@@ -2788,12 +2848,15 @@
       <c r="AE19" s="15">
         <v>0</v>
       </c>
-      <c r="AF19" s="15"/>
+      <c r="AF19" s="15">
+        <v>0</v>
+      </c>
       <c r="AG19" s="15"/>
       <c r="AH19" s="15"/>
       <c r="AI19" s="15"/>
+      <c r="AJ19" s="15"/>
     </row>
-    <row r="20" spans="1:35" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:36" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="16" t="s">
         <v>65</v>
       </c>
@@ -2818,7 +2881,7 @@
       <c r="N20" s="16"/>
       <c r="O20" s="16"/>
       <c r="P20" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="16">
         <v>0</v>
@@ -2830,16 +2893,16 @@
         <v>0</v>
       </c>
       <c r="T20" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20" s="16">
         <v>1</v>
       </c>
       <c r="V20" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X20" s="16">
         <v>1</v>
@@ -2865,12 +2928,15 @@
       <c r="AE20" s="16">
         <v>1</v>
       </c>
-      <c r="AF20" s="16"/>
+      <c r="AF20" s="16">
+        <v>1</v>
+      </c>
       <c r="AG20" s="16"/>
       <c r="AH20" s="16"/>
       <c r="AI20" s="16"/>
+      <c r="AJ20" s="16"/>
     </row>
-    <row r="21" spans="1:35" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:36" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="16" t="s">
         <v>95</v>
       </c>
@@ -2897,7 +2963,7 @@
       <c r="N21" s="16"/>
       <c r="O21" s="16"/>
       <c r="P21" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="16">
         <v>0</v>
@@ -2909,16 +2975,16 @@
         <v>0</v>
       </c>
       <c r="T21" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" s="16">
         <v>1</v>
       </c>
       <c r="V21" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21" s="16">
         <v>1</v>
@@ -2944,12 +3010,15 @@
       <c r="AE21" s="16">
         <v>1</v>
       </c>
-      <c r="AF21" s="16"/>
+      <c r="AF21" s="16">
+        <v>1</v>
+      </c>
       <c r="AG21" s="16"/>
       <c r="AH21" s="16"/>
       <c r="AI21" s="16"/>
+      <c r="AJ21" s="16"/>
     </row>
-    <row r="22" spans="1:35" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:36" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="16" t="s">
         <v>98</v>
       </c>
@@ -2974,7 +3043,7 @@
       <c r="N22" s="16"/>
       <c r="O22" s="16"/>
       <c r="P22" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="16">
         <v>0</v>
@@ -2986,16 +3055,16 @@
         <v>0</v>
       </c>
       <c r="T22" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" s="16">
         <v>1</v>
       </c>
       <c r="V22" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22" s="16">
         <v>1</v>
@@ -3021,12 +3090,15 @@
       <c r="AE22" s="16">
         <v>1</v>
       </c>
-      <c r="AF22" s="16"/>
+      <c r="AF22" s="16">
+        <v>1</v>
+      </c>
       <c r="AG22" s="16"/>
       <c r="AH22" s="16"/>
       <c r="AI22" s="16"/>
+      <c r="AJ22" s="16"/>
     </row>
-    <row r="23" spans="1:35" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:36" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="16" t="s">
         <v>100</v>
       </c>
@@ -3051,7 +3123,7 @@
       <c r="N23" s="16"/>
       <c r="O23" s="16"/>
       <c r="P23" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="16">
         <v>0</v>
@@ -3066,13 +3138,13 @@
         <v>0</v>
       </c>
       <c r="U23" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W23" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X23" s="16">
         <v>1</v>
@@ -3098,12 +3170,15 @@
       <c r="AE23" s="16">
         <v>1</v>
       </c>
-      <c r="AF23" s="16"/>
+      <c r="AF23" s="16">
+        <v>1</v>
+      </c>
       <c r="AG23" s="16"/>
       <c r="AH23" s="16"/>
       <c r="AI23" s="16"/>
+      <c r="AJ23" s="16"/>
     </row>
-    <row r="24" spans="1:35" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:36" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="16" t="s">
         <v>101</v>
       </c>
@@ -3128,7 +3203,7 @@
       <c r="N24" s="16"/>
       <c r="O24" s="16"/>
       <c r="P24" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="16">
         <v>0</v>
@@ -3143,13 +3218,13 @@
         <v>0</v>
       </c>
       <c r="U24" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W24" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" s="16">
         <v>1</v>
@@ -3175,12 +3250,15 @@
       <c r="AE24" s="16">
         <v>1</v>
       </c>
-      <c r="AF24" s="16"/>
+      <c r="AF24" s="16">
+        <v>1</v>
+      </c>
       <c r="AG24" s="16"/>
       <c r="AH24" s="16"/>
       <c r="AI24" s="16"/>
+      <c r="AJ24" s="16"/>
     </row>
-    <row r="25" spans="1:35" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:36" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="16" t="s">
         <v>102</v>
       </c>
@@ -3205,7 +3283,7 @@
       <c r="N25" s="16"/>
       <c r="O25" s="16"/>
       <c r="P25" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="16">
         <v>0</v>
@@ -3226,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25" s="16">
         <v>1</v>
@@ -3252,12 +3330,15 @@
       <c r="AE25" s="16">
         <v>1</v>
       </c>
-      <c r="AF25" s="16"/>
+      <c r="AF25" s="16">
+        <v>1</v>
+      </c>
       <c r="AG25" s="16"/>
       <c r="AH25" s="16"/>
       <c r="AI25" s="16"/>
+      <c r="AJ25" s="16"/>
     </row>
-    <row r="26" spans="1:35" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:36" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="19" t="s">
         <v>121</v>
       </c>
@@ -3282,7 +3363,7 @@
       <c r="N26" s="19"/>
       <c r="O26" s="19"/>
       <c r="P26" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="19">
         <v>0</v>
@@ -3294,13 +3375,13 @@
         <v>0</v>
       </c>
       <c r="T26" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26" s="19">
         <v>1</v>
       </c>
       <c r="V26" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26" s="19">
         <v>0</v>
@@ -3329,12 +3410,15 @@
       <c r="AE26" s="19">
         <v>0</v>
       </c>
-      <c r="AF26" s="19"/>
+      <c r="AF26" s="19">
+        <v>0</v>
+      </c>
       <c r="AG26" s="19"/>
       <c r="AH26" s="19"/>
       <c r="AI26" s="19"/>
+      <c r="AJ26" s="19"/>
     </row>
-    <row r="27" spans="1:35" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:36" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="20" t="s">
         <v>105</v>
       </c>
@@ -3360,7 +3444,7 @@
         <v>88</v>
       </c>
       <c r="P27" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27" s="20">
         <v>0</v>
@@ -3372,13 +3456,13 @@
         <v>0</v>
       </c>
       <c r="T27" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U27" s="20">
         <v>1</v>
       </c>
       <c r="V27" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="20">
         <v>0</v>
@@ -3407,8 +3491,11 @@
       <c r="AE27" s="20">
         <v>0</v>
       </c>
+      <c r="AF27" s="20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:35" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:36" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="20" t="s">
         <v>124</v>
       </c>
@@ -3422,7 +3509,7 @@
         <v>75</v>
       </c>
       <c r="P28" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28" s="20">
         <v>0</v>
@@ -3434,13 +3521,13 @@
         <v>0</v>
       </c>
       <c r="T28" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U28" s="20">
         <v>1</v>
       </c>
       <c r="V28" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="20">
         <v>0</v>
@@ -3469,8 +3556,11 @@
       <c r="AE28" s="20">
         <v>0</v>
       </c>
+      <c r="AF28" s="20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:35" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:36" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="20" t="s">
         <v>125</v>
       </c>
@@ -3484,7 +3574,7 @@
         <v>75</v>
       </c>
       <c r="P29" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29" s="20">
         <v>0</v>
@@ -3496,13 +3586,13 @@
         <v>0</v>
       </c>
       <c r="T29" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U29" s="20">
         <v>1</v>
       </c>
       <c r="V29" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="20">
         <v>0</v>
@@ -3531,8 +3621,11 @@
       <c r="AE29" s="20">
         <v>0</v>
       </c>
+      <c r="AF29" s="20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:35" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:36" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="19" t="s">
         <v>121</v>
       </c>
@@ -3557,7 +3650,7 @@
       <c r="N30" s="19"/>
       <c r="O30" s="19"/>
       <c r="P30" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30" s="19">
         <v>0</v>
@@ -3569,10 +3662,10 @@
         <v>0</v>
       </c>
       <c r="T30" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U30" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V30" s="19">
         <v>0</v>
@@ -3604,12 +3697,15 @@
       <c r="AE30" s="19">
         <v>0</v>
       </c>
-      <c r="AF30" s="19"/>
+      <c r="AF30" s="19">
+        <v>0</v>
+      </c>
       <c r="AG30" s="19"/>
       <c r="AH30" s="19"/>
       <c r="AI30" s="19"/>
+      <c r="AJ30" s="19"/>
     </row>
-    <row r="31" spans="1:35" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:36" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="20" t="s">
         <v>126</v>
       </c>
@@ -3635,7 +3731,7 @@
         <v>88</v>
       </c>
       <c r="P31" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31" s="20">
         <v>0</v>
@@ -3647,10 +3743,10 @@
         <v>0</v>
       </c>
       <c r="T31" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V31" s="20">
         <v>0</v>
@@ -3682,8 +3778,11 @@
       <c r="AE31" s="20">
         <v>0</v>
       </c>
+      <c r="AF31" s="20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:35" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:36" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="20" t="s">
         <v>127</v>
       </c>
@@ -3709,7 +3808,7 @@
         <v>88</v>
       </c>
       <c r="P32" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32" s="20">
         <v>0</v>
@@ -3721,10 +3820,10 @@
         <v>0</v>
       </c>
       <c r="T32" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U32" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V32" s="20">
         <v>0</v>
@@ -3756,8 +3855,11 @@
       <c r="AE32" s="20">
         <v>0</v>
       </c>
+      <c r="AF32" s="20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:36" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:37" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="18" t="s">
         <v>128</v>
       </c>
@@ -3782,7 +3884,7 @@
       <c r="N33" s="18"/>
       <c r="O33" s="18"/>
       <c r="P33" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" s="18">
         <v>0</v>
@@ -3794,10 +3896,10 @@
         <v>0</v>
       </c>
       <c r="T33" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U33" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V33" s="18">
         <v>0</v>
@@ -3806,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="X33" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="18">
         <v>1</v>
@@ -3815,7 +3917,7 @@
         <v>1</v>
       </c>
       <c r="AA33" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB33" s="18">
         <v>0</v>
@@ -3829,12 +3931,15 @@
       <c r="AE33" s="18">
         <v>0</v>
       </c>
-      <c r="AF33" s="18"/>
+      <c r="AF33" s="18">
+        <v>0</v>
+      </c>
       <c r="AG33" s="18"/>
       <c r="AH33" s="18"/>
       <c r="AI33" s="18"/>
+      <c r="AJ33" s="18"/>
     </row>
-    <row r="34" spans="1:36" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:37" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="18" t="s">
         <v>129</v>
       </c>
@@ -3859,7 +3964,7 @@
       <c r="N34" s="18"/>
       <c r="O34" s="18"/>
       <c r="P34" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34" s="18">
         <v>0</v>
@@ -3871,10 +3976,10 @@
         <v>0</v>
       </c>
       <c r="T34" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U34" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V34" s="18">
         <v>0</v>
@@ -3883,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="X34" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y34" s="18">
         <v>1</v>
@@ -3892,7 +3997,7 @@
         <v>1</v>
       </c>
       <c r="AA34" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB34" s="18">
         <v>0</v>
@@ -3906,12 +4011,15 @@
       <c r="AE34" s="18">
         <v>0</v>
       </c>
-      <c r="AF34" s="18"/>
+      <c r="AF34" s="18">
+        <v>0</v>
+      </c>
       <c r="AG34" s="18"/>
       <c r="AH34" s="18"/>
       <c r="AI34" s="18"/>
+      <c r="AJ34" s="18"/>
     </row>
-    <row r="35" spans="1:36" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="17" t="s">
         <v>60</v>
       </c>
@@ -3936,7 +4044,7 @@
       <c r="N35" s="17"/>
       <c r="O35" s="17"/>
       <c r="P35" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35" s="17">
         <v>0</v>
@@ -3983,13 +4091,16 @@
       <c r="AE35" s="17">
         <v>0</v>
       </c>
-      <c r="AF35" s="17"/>
+      <c r="AF35" s="17">
+        <v>0</v>
+      </c>
       <c r="AG35" s="17"/>
       <c r="AH35" s="17"/>
       <c r="AI35" s="17"/>
-      <c r="AJ35" s="8"/>
+      <c r="AJ35" s="17"/>
+      <c r="AK35" s="8"/>
     </row>
-    <row r="36" spans="1:36" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="17" t="s">
         <v>107</v>
       </c>
@@ -4014,7 +4125,7 @@
       <c r="N36" s="17"/>
       <c r="O36" s="17"/>
       <c r="P36" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36" s="17">
         <v>0</v>
@@ -4026,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="T36" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U36" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V36" s="17">
         <v>0</v>
@@ -4061,13 +4172,16 @@
       <c r="AE36" s="17">
         <v>0</v>
       </c>
-      <c r="AF36" s="17"/>
+      <c r="AF36" s="17">
+        <v>0</v>
+      </c>
       <c r="AG36" s="17"/>
       <c r="AH36" s="17"/>
       <c r="AI36" s="17"/>
-      <c r="AJ36" s="8"/>
+      <c r="AJ36" s="17"/>
+      <c r="AK36" s="8"/>
     </row>
-    <row r="37" spans="1:36" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="17" t="s">
         <v>130</v>
       </c>
@@ -4092,7 +4206,7 @@
       <c r="N37" s="17"/>
       <c r="O37" s="17"/>
       <c r="P37" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37" s="17">
         <v>0</v>
@@ -4139,13 +4253,16 @@
       <c r="AE37" s="17">
         <v>0</v>
       </c>
-      <c r="AF37" s="17"/>
+      <c r="AF37" s="17">
+        <v>0</v>
+      </c>
       <c r="AG37" s="17"/>
       <c r="AH37" s="17"/>
       <c r="AI37" s="17"/>
-      <c r="AJ37" s="8"/>
+      <c r="AJ37" s="17"/>
+      <c r="AK37" s="8"/>
     </row>
-    <row r="38" spans="1:36" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="17" t="s">
         <v>131</v>
       </c>
@@ -4170,7 +4287,7 @@
       <c r="N38" s="17"/>
       <c r="O38" s="17"/>
       <c r="P38" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="17">
         <v>0</v>
@@ -4217,11 +4334,14 @@
       <c r="AE38" s="17">
         <v>0</v>
       </c>
-      <c r="AF38" s="17"/>
+      <c r="AF38" s="17">
+        <v>0</v>
+      </c>
       <c r="AG38" s="17"/>
       <c r="AH38" s="17"/>
       <c r="AI38" s="17"/>
-      <c r="AJ38" s="8"/>
+      <c r="AJ38" s="17"/>
+      <c r="AK38" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
